--- a/001.Document/001.설계/설계기준_V1.0.xlsx
+++ b/001.Document/001.설계/설계기준_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\001.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271682-BB49-41E1-91E3-88C9C1CCA818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C188A-AC9C-4CD7-BD1A-788AFA042756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1965" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{17D34872-6E6D-4D7E-BE90-44359371C71B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1110">
   <si>
     <t>L1_순번</t>
   </si>
@@ -2915,6 +2915,465 @@
   </si>
   <si>
     <t>표준 조합</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+  </si>
+  <si>
+    <t>권장 규칙/행동</t>
+  </si>
+  <si>
+    <t>이유/주의</t>
+  </si>
+  <si>
+    <t>목표</t>
+  </si>
+  <si>
+    <t>ERD 자동생성</t>
+  </si>
+  <si>
+    <t>DDL 스크립트로 테이블/컬럼/PK/FK를 Import로 자동 생성</t>
+  </si>
+  <si>
+    <t>1차 Import는 관계선 생성에 집중</t>
+  </si>
+  <si>
+    <t>테이블+PK+FK 중심</t>
+  </si>
+  <si>
+    <t>전략</t>
+  </si>
+  <si>
+    <t>2단계로 나누기</t>
+  </si>
+  <si>
+    <t>(1) 최소 DDL로 Import 성공 -&gt; (2) UNIQUE/CHECK/DEFAULT/트리거 등은 후반 보강</t>
+  </si>
+  <si>
+    <t>파서/DB별 문법 차이로 Import 실패 방지</t>
+  </si>
+  <si>
+    <t>Import용 DDL / 배포용 DDL 분리</t>
+  </si>
+  <si>
+    <t>구성</t>
+  </si>
+  <si>
+    <t>테이블 단위</t>
+  </si>
+  <si>
+    <t>테이블마다 CREATE TABLE ... ; 로 끝내기</t>
+  </si>
+  <si>
+    <t>세미콜론 누락 시 파싱 실패 가능</t>
+  </si>
+  <si>
+    <t>CREATE TABLE T(...);</t>
+  </si>
+  <si>
+    <t>FK 분리</t>
+  </si>
+  <si>
+    <t>모든 테이블 CREATE 후 ALTER TABLE로 FK 추가</t>
+  </si>
+  <si>
+    <t>테이블 생성 순서 문제 제거</t>
+  </si>
+  <si>
+    <t>ALTER TABLE CHILD ADD CONSTRAINT ... FOREIGN KEY ...</t>
+  </si>
+  <si>
+    <t>옵션 최소화</t>
+  </si>
+  <si>
+    <t>Import용 DDL에서는 복잡한 옵션(파일그룹/파티션/엔진 등) 제외</t>
+  </si>
+  <si>
+    <t>ERD 생성과 무관 + 실패 요인</t>
+  </si>
+  <si>
+    <t>배포용에서만 사용</t>
+  </si>
+  <si>
+    <t>명명</t>
+  </si>
+  <si>
+    <t>테이블/컬럼</t>
+  </si>
+  <si>
+    <t>영문+_ 사용, 공백/하이픈 지양</t>
+  </si>
+  <si>
+    <t>호환성/가독성/예약어 충돌 방지</t>
+  </si>
+  <si>
+    <t>SR_TICKET_MST / RECEIVED_DT</t>
+  </si>
+  <si>
+    <t>예약어 회피</t>
+  </si>
+  <si>
+    <t>USER, ORDER, GROUP 등 DB 예약어 사용 피하기</t>
+  </si>
+  <si>
+    <t>파싱/생성 오류 방지</t>
+  </si>
+  <si>
+    <t>ORDER_NO 대신 SORT_NO</t>
+  </si>
+  <si>
+    <t>PK 이름</t>
+  </si>
+  <si>
+    <t>PK_&lt;TABLE&gt; 형식 권장</t>
+  </si>
+  <si>
+    <t>식별/추적 쉬움</t>
+  </si>
+  <si>
+    <t>PK_SR_TICKET_MST</t>
+  </si>
+  <si>
+    <t>FK 이름</t>
+  </si>
+  <si>
+    <t>FK_&lt;CHILD&gt;_&lt;PARENT&gt; 형식 권장</t>
+  </si>
+  <si>
+    <t>관계 추적 쉬움</t>
+  </si>
+  <si>
+    <t>FK_SR_TICKET_DTL_SR_TICKET_MST</t>
+  </si>
+  <si>
+    <t>인덱스 이름</t>
+  </si>
+  <si>
+    <t>IX_&lt;TABLE&gt;_&lt;COL...&gt; 형식 권장</t>
+  </si>
+  <si>
+    <t>성능/관리 편의</t>
+  </si>
+  <si>
+    <t>IX_SR_TICKET_MST_RECEIVED_DT</t>
+  </si>
+  <si>
+    <t>제약</t>
+  </si>
+  <si>
+    <t>우선순위</t>
+  </si>
+  <si>
+    <t>1) PK 2) FK 3) INDEX 4) UNIQUE/CHECK/DEFAULT(후순위)</t>
+  </si>
+  <si>
+    <t>Import 성공률 최우선</t>
+  </si>
+  <si>
+    <t>UNIQUE는 Import 후 UI 보강 가능</t>
+  </si>
+  <si>
+    <t>PK 정의</t>
+  </si>
+  <si>
+    <t>CREATE TABLE 내부에서 PRIMARY KEY(...) 정의</t>
+  </si>
+  <si>
+    <t>관계/키 인식 필수</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (SR_NO)</t>
+  </si>
+  <si>
+    <t>복합 PK</t>
+  </si>
+  <si>
+    <t>복합키는 컬럼 순서까지 명확히</t>
+  </si>
+  <si>
+    <t>ERD 관계/인덱스에 영향</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (PLANT_CD, LOCATION_CD)</t>
+  </si>
+  <si>
+    <t>FK 기본형</t>
+  </si>
+  <si>
+    <t>가능하면 단순 FK(컬럼 1~2개)부터 적용</t>
+  </si>
+  <si>
+    <t>복잡한 FK는 실패 가능성 증가</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (SR_NO) REFERENCES ...</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Import용에서는 DEFAULT 함수/표현식은 가급적 제거</t>
+  </si>
+  <si>
+    <t>GETDATE(), NEWID() 등은 파서가 실패 원인</t>
+  </si>
+  <si>
+    <t>배포용에서만 DEFAULT 추가</t>
+  </si>
+  <si>
+    <t>UNIQUE/CHECK</t>
+  </si>
+  <si>
+    <t>Import용에서는 제외하고 ERDCloud UI에서 보강</t>
+  </si>
+  <si>
+    <t>누락/오류 발생 가능</t>
+  </si>
+  <si>
+    <t>Import 후 Unique 설정</t>
+  </si>
+  <si>
+    <t>타입(SQLServer)</t>
+  </si>
+  <si>
+    <t>문자</t>
+  </si>
+  <si>
+    <t>VARCHAR(n), NVARCHAR(n) 사용</t>
+  </si>
+  <si>
+    <t>운영 DB가 SQL Server면 자연스러움</t>
+  </si>
+  <si>
+    <t>NVARCHAR(100)</t>
+  </si>
+  <si>
+    <t>숫자</t>
+  </si>
+  <si>
+    <t>INT, BIGINT, SMALLINT, BIT</t>
+  </si>
+  <si>
+    <t>표준 타입 사용</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>소수</t>
+  </si>
+  <si>
+    <t>DECIMAL(p,s) 또는 NUMERIC(p,s)</t>
+  </si>
+  <si>
+    <t>자릿수 명확히</t>
+  </si>
+  <si>
+    <t>DECIMAL(18,6)</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>DATETIME, DATE</t>
+  </si>
+  <si>
+    <t>표준 사용</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>자동증가</t>
+  </si>
+  <si>
+    <t>IDENTITY(1,1)</t>
+  </si>
+  <si>
+    <t>Import 인식이 안 돼도 ERD에는 큰 영향 없음</t>
+  </si>
+  <si>
+    <t>CONTACT_ID INT IDENTITY(1,1)</t>
+  </si>
+  <si>
+    <t>타입(MySQL)</t>
+  </si>
+  <si>
+    <t>VARCHAR(n)</t>
+  </si>
+  <si>
+    <t>Import가 깔끔한 편</t>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>INT, BIGINT, DECIMAL(p,s)</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>Import 시 편함</t>
+  </si>
+  <si>
+    <t>CONTACT_ID INT AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>템플릿</t>
+  </si>
+  <si>
+    <t>최소 CREATE TABLE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE + 컬럼 + NULL + PK만 포함</t>
+  </si>
+  <si>
+    <t>성공률 최상</t>
+  </si>
+  <si>
+    <t>아래 최소 예시 참고</t>
+  </si>
+  <si>
+    <t>FK 추가</t>
+  </si>
+  <si>
+    <t>ALTER TABLE로 FK를 나중에 추가</t>
+  </si>
+  <si>
+    <t>순서 문제 제거</t>
+  </si>
+  <si>
+    <t>아래 FK 예시 참고</t>
+  </si>
+  <si>
+    <t>인덱스</t>
+  </si>
+  <si>
+    <t>가능하면 CREATE INDEX로 추가(선택)</t>
+  </si>
+  <si>
+    <t>Import 누락 가능성 있음</t>
+  </si>
+  <si>
+    <t>INDEX는 배포용에 포함 권장</t>
+  </si>
+  <si>
+    <t>체크리스트</t>
+  </si>
+  <si>
+    <t>테이블/컬럼 물리명 확정(영문+_)</t>
+  </si>
+  <si>
+    <t>이름 변경 시 FK도 같이 수정</t>
+  </si>
+  <si>
+    <t>컬럼/타입/NULL만 먼저 작성</t>
+  </si>
+  <si>
+    <t>DEFAULT/UNIQUE/CHECK는 후순위</t>
+  </si>
+  <si>
+    <t>NOT NULL / NULL</t>
+  </si>
+  <si>
+    <t>PK 정의 완료</t>
+  </si>
+  <si>
+    <t>ERD 핵심 요소</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(...)</t>
+  </si>
+  <si>
+    <t>모든 테이블 CREATE 완료</t>
+  </si>
+  <si>
+    <t>그 다음 FK 추가</t>
+  </si>
+  <si>
+    <t>테이블 수만큼 반복</t>
+  </si>
+  <si>
+    <t>ALTER로 FK 일괄 추가</t>
+  </si>
+  <si>
+    <t>관계선 생성 확인</t>
+  </si>
+  <si>
+    <t>FK 생성 후 선 확인</t>
+  </si>
+  <si>
+    <t>(선택) INDEX 추가</t>
+  </si>
+  <si>
+    <t>성능 문서화 목적</t>
+  </si>
+  <si>
+    <t>누락되면 배포용에서 관리</t>
+  </si>
+  <si>
+    <t>Import 결과 확인</t>
+  </si>
+  <si>
+    <t>PK 표시/관계선(FK)/누락 컬럼 체크</t>
+  </si>
+  <si>
+    <t>문제 있으면 FK부터 제거 후 재시도</t>
+  </si>
+  <si>
+    <t>관계선이 안 뜨면 FK 문법/컬럼명 확인</t>
+  </si>
+  <si>
+    <t>문제해결</t>
+  </si>
+  <si>
+    <t>UNIQUE 누락</t>
+  </si>
+  <si>
+    <t>Import용에서는 제외하고 UI에서 보강</t>
+  </si>
+  <si>
+    <t>파서가 무시할 수 있음</t>
+  </si>
+  <si>
+    <t>Unique는 후반 처리</t>
+  </si>
+  <si>
+    <t>DEFAULT 실패</t>
+  </si>
+  <si>
+    <t>DEFAULT 제거 후 Import 먼저 성공</t>
+  </si>
+  <si>
+    <t>함수 DEFAULT가 실패 원인인 경우 많음</t>
+  </si>
+  <si>
+    <t>GETDATE()/CURRENT_TIMESTAMP 제거</t>
+  </si>
+  <si>
+    <t>FK 인식 안 됨</t>
+  </si>
+  <si>
+    <t>ALTER TABLE로 분리 + 부모/자식 타입/길이 일치 확인</t>
+  </si>
+  <si>
+    <t>타입 불일치면 FK 생성 실패</t>
+  </si>
+  <si>
+    <t>VARCHAR(40) &lt;-&gt; VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>순서 문제</t>
+  </si>
+  <si>
+    <t>항상 CREATE 전체 -&gt; FK 전체 원칙</t>
+  </si>
+  <si>
+    <t>부모 테이블 없으면 FK 실패</t>
+  </si>
+  <si>
+    <t>FK는 마지막에</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3028,6 +3487,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8413,12 +8875,702 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2B12F3-ACE4-4C15-A9EE-94C4C9CE7B6F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
